--- a/Statistical files/实验情况表.xlsx
+++ b/Statistical files/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84403E7F-3413-4AC9-A600-D5AB3A831157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112865A8-A159-4A59-9D6D-D10BCAA43357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>86.71±0.56%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波范围0-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +560,13 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
@@ -584,7 +594,9 @@
         <v>3</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
@@ -604,6 +616,7 @@
       <c r="C3" s="2">
         <v>0.65</v>
       </c>
+      <c r="E3" s="11"/>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -627,6 +640,7 @@
       <c r="C4" s="3">
         <v>0.77700000000000002</v>
       </c>
+      <c r="E4" s="11"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -650,6 +664,7 @@
       <c r="C5" s="8">
         <v>0.50749999999999995</v>
       </c>
+      <c r="E5" s="11"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -673,6 +688,10 @@
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -684,6 +703,7 @@
       <c r="C8" s="8">
         <v>0.70109999999999995</v>
       </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -695,6 +715,7 @@
       <c r="C9" s="3">
         <v>0.51539999999999997</v>
       </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -706,6 +727,7 @@
       <c r="C10" s="3">
         <v>0.6996</v>
       </c>
+      <c r="E10" s="11"/>
       <c r="K10" t="s">
         <v>12</v>
       </c>
@@ -729,6 +751,7 @@
       <c r="C11" s="3">
         <v>0.50329999999999997</v>
       </c>
+      <c r="E11" s="11"/>
       <c r="K11" t="s">
         <v>13</v>
       </c>
@@ -752,6 +775,7 @@
       <c r="C12" s="8">
         <v>0.84519999999999995</v>
       </c>
+      <c r="E12" s="11"/>
       <c r="K12" t="s">
         <v>14</v>
       </c>
@@ -766,6 +790,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="11"/>
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -783,6 +808,7 @@
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="11"/>
       <c r="K14" t="s">
         <v>18</v>
       </c>
@@ -806,15 +832,20 @@
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -824,8 +855,9 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -835,14 +867,16 @@
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E2:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistical files/实验情况表.xlsx
+++ b/Statistical files/实验情况表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112865A8-A159-4A59-9D6D-D10BCAA43357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A11F23-ADCB-42FF-B7B8-714AFCCCB0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,70 @@
   </si>
   <si>
     <t>滤波范围0-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vmaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64.84%±0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maml+2Vae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.83%±0.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波范围0-100hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maml+3Vae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.66%±0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时训练了三个VAE, Vae_p, Vae_n, Vae_all, 验证集用VAE_all进行了编码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时只是训练了两个VAE, VAE_p, VAE_n , 验证集的数据是raw data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时训练一个VAE, 训练数据和验证集都经过这个VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全使用raw data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.98%±0.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.40%±0.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用raw data </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,31 +288,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,66 +726,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>10000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="14">
         <v>0.65</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -631,16 +803,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>10000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="15">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -655,16 +828,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="17">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>0.50749999999999995</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -679,55 +853,63 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="17">
         <v>2000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>0.70109999999999995</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>3000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="15">
         <v>0.51539999999999997</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>4000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="15">
         <v>0.6996</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="K10" t="s">
         <v>12</v>
       </c>
@@ -742,16 +924,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>5000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="15">
         <v>0.50329999999999997</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="K11" t="s">
         <v>13</v>
       </c>
@@ -766,16 +949,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="17">
         <v>500</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>0.84519999999999995</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="K12" t="s">
         <v>14</v>
       </c>
@@ -790,7 +974,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -799,16 +987,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="20">
         <v>2000</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="K14" t="s">
         <v>18</v>
       </c>
@@ -823,54 +1012,182 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="20">
         <v>10000</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>10000</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>4000</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="7">
+        <v>50000</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="26">
+        <v>10</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E24:E33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:L2"/>
@@ -880,6 +1197,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statistical files/实验情况表.xlsx
+++ b/Statistical files/实验情况表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A11F23-ADCB-42FF-B7B8-714AFCCCB0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DAA437-43E0-45E4-974E-DAC39AC3A935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,26 @@
   </si>
   <si>
     <t xml:space="preserve">使用raw data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero-data training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuarcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,29 +392,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,15 +414,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,55 +764,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>10000</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>0.65</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="21"/>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -803,17 +827,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>10000</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="21"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -828,17 +852,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="13">
         <v>0.50749999999999995</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="21"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -853,63 +877,63 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>2000</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="13">
         <v>0.70109999999999995</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>3000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>0.51539999999999997</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>4000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>0.6996</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="21"/>
       <c r="K10" t="s">
         <v>12</v>
       </c>
@@ -924,17 +948,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>5000</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>0.50329999999999997</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="21"/>
       <c r="K11" t="s">
         <v>13</v>
       </c>
@@ -949,17 +973,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <v>500</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <v>0.84519999999999995</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="21"/>
       <c r="K12" t="s">
         <v>14</v>
       </c>
@@ -974,11 +998,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="21"/>
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -987,17 +1011,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="15">
         <v>2000</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="21"/>
       <c r="K14" t="s">
         <v>18</v>
       </c>
@@ -1012,181 +1036,204 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="15">
         <v>10000</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>10000</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>4000</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>4000</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="18"/>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>50000</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>4000</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="21"/>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>4000</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="19">
         <v>10</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="E24:E33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
@@ -1194,6 +1241,7 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="E2:E19"/>
+    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistical files/实验情况表.xlsx
+++ b/Statistical files/实验情况表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DAA437-43E0-45E4-974E-DAC39AC3A935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6BCCF-1A78-5B4B-8963-3C38FA1F058C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,18 +752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,7 +851,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -876,7 +876,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -889,14 +889,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -972,7 +972,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -997,7 +997,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1010,7 +1010,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
@@ -1048,14 +1048,14 @@
       <c r="D15" s="4"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="K22" s="28" t="s">
         <v>50</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -1159,8 +1159,11 @@
       <c r="K25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L25" s="20">
+        <v>0.68359999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1174,8 +1177,14 @@
         <v>41</v>
       </c>
       <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="20">
+        <v>0.88180000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1190,42 +1199,42 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
